--- a/test_case_and_bug_report/test_case_final.xlsx
+++ b/test_case_and_bug_report/test_case_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\Nepse_Alpha-Pytest-Framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\Nepse_Alpha-Pytest-Framework\test_case_and_bug_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531E49D-3260-4572-B4D0-79D0472D3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28E2783-147A-4BB3-95DB-FAE6755AFFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3504,7 +3504,7 @@
   <dimension ref="A1:AF1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
@@ -3514,10 +3514,10 @@
   <cols>
     <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" customWidth="1"/>
     <col min="7" max="7" width="28.21875" customWidth="1"/>
     <col min="8" max="8" width="38.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.21875" customWidth="1"/>
